--- a/public/book_list_templated.xlsx
+++ b/public/book_list_templated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_v7.4\htdocs\ucsl_library\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FD16C3-9058-40C3-8AD3-303A45C9F86D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8A1298-27D2-4B3E-A93A-7F5AEE3C8F0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{807D2EBA-9547-403B-A010-B16C2CFB5D85}"/>
   </bookViews>
@@ -48,16 +48,16 @@
     <t>Publisher_Name</t>
   </si>
   <si>
-    <t>Produce_Time</t>
-  </si>
-  <si>
     <t>Produce_Year</t>
   </si>
   <si>
-    <t xml:space="preserve">Category_Name </t>
-  </si>
-  <si>
     <t>Available_Reason</t>
+  </si>
+  <si>
+    <t>Edtion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category_Number </t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFFA38B-EAA0-4DF6-99D0-61F89B91BDF8}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -433,10 +435,10 @@
     <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -458,19 +460,19 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>

--- a/public/book_list_templated.xlsx
+++ b/public/book_list_templated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_v7.4\htdocs\ucsl_library\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8A1298-27D2-4B3E-A93A-7F5AEE3C8F0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADFAA3D-BA05-4F60-86A3-EEA5AC884FD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{807D2EBA-9547-403B-A010-B16C2CFB5D85}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -58,6 +58,30 @@
   </si>
   <si>
     <t xml:space="preserve">Category_Number </t>
+  </si>
+  <si>
+    <t>Imag_Path</t>
+  </si>
+  <si>
+    <t>Total_Book</t>
+  </si>
+  <si>
+    <t>/default_book.png</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>SESS</t>
   </si>
 </sst>
 </file>
@@ -422,60 +446,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFFA38B-EAA0-4DF6-99D0-61F89B91BDF8}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>202111</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>2022</v>
+      </c>
+      <c r="I2">
+        <v>2444</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/public/book_list_templated.xlsx
+++ b/public/book_list_templated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_v7.4\htdocs\ucsl_library\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADFAA3D-BA05-4F60-86A3-EEA5AC884FD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B905F792-164C-4B16-B260-8F977C0563F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{807D2EBA-9547-403B-A010-B16C2CFB5D85}"/>
   </bookViews>
@@ -60,15 +60,9 @@
     <t xml:space="preserve">Category_Number </t>
   </si>
   <si>
-    <t>Imag_Path</t>
-  </si>
-  <si>
     <t>Total_Book</t>
   </si>
   <si>
-    <t>/default_book.png</t>
-  </si>
-  <si>
     <t>Buy</t>
   </si>
   <si>
@@ -82,6 +76,12 @@
   </si>
   <si>
     <t>SESS</t>
+  </si>
+  <si>
+    <t>Image_Path</t>
+  </si>
+  <si>
+    <t>/default-book.png</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,7 +471,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -507,12 +507,12 @@
         <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>202111</v>
@@ -521,13 +521,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>2022</v>
@@ -539,10 +539,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M2">
         <v>20</v>

--- a/public/book_list_templated.xlsx
+++ b/public/book_list_templated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_v7.4\htdocs\ucsl_library\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B905F792-164C-4B16-B260-8F977C0563F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFAF2AA-F011-43CC-BD91-04B09B087BEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{807D2EBA-9547-403B-A010-B16C2CFB5D85}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -63,25 +63,7 @@
     <t>Total_Book</t>
   </si>
   <si>
-    <t>Buy</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>1st</t>
-  </si>
-  <si>
-    <t>Tester</t>
-  </si>
-  <si>
-    <t>SESS</t>
-  </si>
-  <si>
     <t>Image_Path</t>
-  </si>
-  <si>
-    <t>/default-book.png</t>
   </si>
 </sst>
 </file>
@@ -446,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFFA38B-EAA0-4DF6-99D0-61F89B91BDF8}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,7 +453,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -508,44 +490,6 @@
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <v>202111</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>2022</v>
-      </c>
-      <c r="I2">
-        <v>2444</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
